--- a/實驗資料(2_to_2).xlsx
+++ b/實驗資料(2_to_2).xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="左轉" sheetId="1" r:id="rId1"/>
     <sheet name="右轉" sheetId="2" r:id="rId2"/>
     <sheet name="右轉靠右腳" sheetId="3" r:id="rId3"/>
     <sheet name="右轉靠左腳" sheetId="4" r:id="rId4"/>
+    <sheet name="面對面且平移到平行位置" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="jj">"圖表 1"</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>Leftwaist_P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +100,17 @@
     <t>Jack_Right_to_Jack_Left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>totTime21007</t>
+  </si>
+  <si>
+    <t>平整沒動數據時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在移動時靠近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -154,8 +167,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -189,11 +308,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -211,6 +345,8 @@
     <cellStyle name="已瀏覽過的超連結" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -227,6 +363,8 @@
     <cellStyle name="超連結" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="35" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -256,31 +394,254 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$G$2:$G$7</c:f>
+              <c:f>左轉!$P$2:$P$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>49.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="36">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>49.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="66">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,58 +652,168 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$H$2:$H$7</c:f>
+              <c:f>左轉!$Q$2:$Q$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>左轉!$I$2:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>49.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.0</c:v>
+                <c:pt idx="37">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,40 +830,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131601256"/>
-        <c:axId val="-2131599336"/>
+        <c:axId val="2111090184"/>
+        <c:axId val="2111093272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131601256"/>
+        <c:axId val="2111090184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>次數</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131599336"/>
+        <c:crossAx val="2111093272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -400,43 +851,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131599336"/>
+        <c:axId val="2111093272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>RSSI</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131601256"/>
+        <c:crossAx val="2111090184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -481,6 +907,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -513,6 +950,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -542,6 +990,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -581,11 +1040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128377800"/>
-        <c:axId val="-2127893944"/>
+        <c:axId val="2106045224"/>
+        <c:axId val="2106039752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128377800"/>
+        <c:axId val="2106045224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +1063,6 @@
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>次數</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -614,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127893944"/>
+        <c:crossAx val="2106039752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127893944"/>
+        <c:axId val="2106039752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128377800"/>
+        <c:crossAx val="2106045224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -697,6 +1155,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -720,6 +1189,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -752,6 +1232,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -788,11 +1279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133973368"/>
-        <c:axId val="-2131289624"/>
+        <c:axId val="2105994392"/>
+        <c:axId val="2105981688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133973368"/>
+        <c:axId val="2105994392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +1312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131289624"/>
+        <c:crossAx val="2105981688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -829,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131289624"/>
+        <c:axId val="2105981688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133973368"/>
+        <c:crossAx val="2105994392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -905,6 +1396,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1050,6 +1552,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1265,11 +1778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130646120"/>
-        <c:axId val="-2128001640"/>
+        <c:axId val="2105932584"/>
+        <c:axId val="2105925160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130646120"/>
+        <c:axId val="2105932584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128001640"/>
+        <c:crossAx val="2105925160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1306,7 +1819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128001640"/>
+        <c:axId val="2105925160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130646120"/>
+        <c:crossAx val="2105932584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,11 +1956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135692648"/>
-        <c:axId val="-2135835160"/>
+        <c:axId val="2105871400"/>
+        <c:axId val="2105869864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135692648"/>
+        <c:axId val="2105871400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135835160"/>
+        <c:crossAx val="2105869864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1464,7 +1977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135835160"/>
+        <c:axId val="2105869864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135692648"/>
+        <c:crossAx val="2105871400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,6 +2033,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1549,6 +2073,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1578,6 +2113,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1611,11 +2157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112777128"/>
-        <c:axId val="-2125997848"/>
+        <c:axId val="2105829688"/>
+        <c:axId val="2105823544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112777128"/>
+        <c:axId val="2105829688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125997848"/>
+        <c:crossAx val="2105823544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1632,7 +2178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125997848"/>
+        <c:axId val="2105823544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +2189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112777128"/>
+        <c:crossAx val="2105829688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1800,11 +2346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115422808"/>
-        <c:axId val="-2115979656"/>
+        <c:axId val="2105782488"/>
+        <c:axId val="2105776504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115422808"/>
+        <c:axId val="2105782488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +2359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115979656"/>
+        <c:crossAx val="2105776504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1821,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115979656"/>
+        <c:axId val="2105776504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115422808"/>
+        <c:crossAx val="2105782488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,6 +2423,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2038,6 +2595,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2115,6 +2683,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉靠右腳!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Right_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2256,11 +2835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127144216"/>
-        <c:axId val="-2117312632"/>
+        <c:axId val="2105740728"/>
+        <c:axId val="2105734584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127144216"/>
+        <c:axId val="2105740728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117312632"/>
+        <c:crossAx val="2105734584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117312632"/>
+        <c:axId val="2105734584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2867,1353 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127144216"/>
+        <c:crossAx val="2105740728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$A$2:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>108.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$B$2:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-174.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-143.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-116.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-115.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-96.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-106.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-108.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-75.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-72.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-69.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-64.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-66.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$C$2:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105692584"/>
+        <c:axId val="2105686600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105692584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105686600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105686600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105692584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$D$2:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$E$2:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$F$2:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>267.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105643240"/>
+        <c:axId val="2105638056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105643240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105638056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105638056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105643240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>右轉靠右腳!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105599288"/>
+        <c:axId val="2105602168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105599288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105602168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105602168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105599288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2338,24 +4263,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$J$2:$J$6</c:f>
+              <c:f>左轉!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>49.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>111.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,21 +4460,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$K$2:$K$6</c:f>
+              <c:f>左轉!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>64.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,15 +4657,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$L$2:$L$6</c:f>
+              <c:f>左轉!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>56.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.0</c:v>
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,11 +4856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134232072"/>
-        <c:axId val="-2134148776"/>
+        <c:axId val="2110893000"/>
+        <c:axId val="2110898664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134232072"/>
+        <c:axId val="2110893000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +4895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134148776"/>
+        <c:crossAx val="2110898664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2471,7 +4903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134148776"/>
+        <c:axId val="2110898664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,9 +4920,10 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>RSSI</a:t>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>角度</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
               </a:p>
               <a:p>
                 <a:pPr>
@@ -2507,7 +4940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134232072"/>
+        <c:crossAx val="2110893000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2552,17 +4985,194 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$M$2:$M$3</c:f>
+              <c:f>左轉!$D$2:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>62.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,17 +5182,194 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$O$2:$O$3</c:f>
+              <c:f>左轉!$E$2:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>46.0</c:v>
+                  <c:v>-140.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.0</c:v>
+                  <c:v>-142.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-142.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-142.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-143.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-144.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-153.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-161.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-172.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-177.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-177.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-177.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-176.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-173.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-169.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-169.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-169.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-170.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-172.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-174.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-178.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>173.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,20 +5379,194 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$N$2:$N$4</c:f>
+              <c:f>左轉!$F$2:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>52.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>263.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,20 +5583,46 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131706440"/>
-        <c:axId val="-2131704504"/>
+        <c:axId val="2110845288"/>
+        <c:axId val="2110839544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131706440"/>
+        <c:axId val="2110845288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次數</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131704504"/>
+        <c:crossAx val="2110839544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2643,18 +5630,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131704504"/>
+        <c:axId val="2110839544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>角度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131706440"/>
+        <c:crossAx val="2110845288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2699,243 +5706,42 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$P$2:$P$76</c:f>
+              <c:f>左轉!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
                   <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2946,157 +5752,80 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$Q$2:$Q$76</c:f>
+              <c:f>左轉!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>67.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>左轉!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,11 +5842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131219544"/>
-        <c:axId val="-2131092872"/>
+        <c:axId val="2101067688"/>
+        <c:axId val="2101068744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131219544"/>
+        <c:axId val="2101067688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +5855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131092872"/>
+        <c:crossAx val="2101068744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +5863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131092872"/>
+        <c:axId val="2101068744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +5874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131219544"/>
+        <c:crossAx val="2101067688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3190,194 +5919,40 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$A$2:$A$61</c:f>
+              <c:f>左轉!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>110.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.0</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>111.0</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,194 +5962,37 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$B$2:$B$61</c:f>
+              <c:f>左轉!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,194 +6002,31 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim__Right_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$C$2:$C$61</c:f>
+              <c:f>左轉!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,46 +6043,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133357096"/>
-        <c:axId val="-2130247640"/>
+        <c:axId val="2126654488"/>
+        <c:axId val="2126656760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133357096"/>
+        <c:axId val="2126654488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>次數</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130247640"/>
+        <c:crossAx val="2126656760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3835,44 +6064,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130247640"/>
+        <c:axId val="2126656760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>角度</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133357096"/>
+        <c:crossAx val="2126654488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3917,194 +6120,31 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$D$2:$D$61</c:f>
+              <c:f>左轉!$O$2:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,194 +6154,34 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$E$2:$E$61</c:f>
+              <c:f>左轉!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-140.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-142.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-142.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-142.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-143.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-144.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-153.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-161.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-172.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-177.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-177.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-177.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-176.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-173.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-169.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-169.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-169.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-170.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-172.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-174.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-178.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>174.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>169.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>169.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>173.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4311,194 +6191,31 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>左轉!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack_Left_to_Tim_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>左轉!$F$2:$F$61</c:f>
+              <c:f>左轉!$M$2:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>257.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>262.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>262.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>263.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,46 +6232,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133411400"/>
-        <c:axId val="-2133084728"/>
+        <c:axId val="2108772168"/>
+        <c:axId val="2108721944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133411400"/>
+        <c:axId val="2108772168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>次數</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133084728"/>
+        <c:crossAx val="2108721944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4562,38 +6253,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133084728"/>
+        <c:axId val="2108721944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>角度</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133411400"/>
+        <c:crossAx val="2108772168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5155,11 +6826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128128232"/>
-        <c:axId val="-2128495848"/>
+        <c:axId val="2110793336"/>
+        <c:axId val="2110787800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128128232"/>
+        <c:axId val="2110793336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5182,13 +6853,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128495848"/>
+        <c:crossAx val="2110787800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5196,7 +6866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128495848"/>
+        <c:axId val="2110787800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,25 +6886,22 @@
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>角度</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128128232"/>
+        <c:crossAx val="2110793336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5789,11 +7456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137093640"/>
-        <c:axId val="-2130130744"/>
+        <c:axId val="2106282968"/>
+        <c:axId val="2106257304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137093640"/>
+        <c:axId val="2106282968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5812,17 +7479,15 @@
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>次數</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130130744"/>
+        <c:crossAx val="2106257304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5830,7 +7495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130130744"/>
+        <c:axId val="2106257304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,25 +7515,22 @@
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>角度</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137093640"/>
+        <c:crossAx val="2106282968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5906,6 +7568,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Tim_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5938,6 +7611,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Jack_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5970,6 +7654,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>右轉!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tim_Left_to_Jack_Right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6018,11 +7713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126764936"/>
-        <c:axId val="-2126978200"/>
+        <c:axId val="2106090280"/>
+        <c:axId val="2106083496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126764936"/>
+        <c:axId val="2106090280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6041,7 +7736,6 @@
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>次數</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6051,7 +7745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126978200"/>
+        <c:crossAx val="2106083496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6059,7 +7753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126978200"/>
+        <c:axId val="2106083496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,7 +7784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126764936"/>
+        <c:crossAx val="2106090280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6116,96 +7810,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1327150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="圖表 17"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1739900</xdr:colOff>
       <xdr:row>53</xdr:row>
@@ -6228,7 +7832,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6258,7 +7862,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6280,6 +7884,96 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="21" name="圖表 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6599,6 +8293,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6931,8 +8715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="M41" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7043,7 +8827,7 @@
       <c r="K2">
         <v>64</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>56</v>
       </c>
       <c r="M2">
@@ -7096,7 +8880,7 @@
       <c r="K3">
         <v>65</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>57</v>
       </c>
       <c r="M3">
@@ -8718,8 +10502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="K62" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10291,8 +12075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10416,13 +12200,13 @@
       <c r="O2">
         <v>42</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>52</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>54</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>34</v>
       </c>
     </row>
@@ -10469,13 +12253,13 @@
       <c r="O3">
         <v>43</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>47</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>55</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10519,13 +12303,13 @@
       <c r="O4">
         <v>43</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>47</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>64</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="8">
         <v>46</v>
       </c>
     </row>
@@ -10566,13 +12350,13 @@
       <c r="O5">
         <v>41</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>53</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="7">
         <v>66</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="8">
         <v>34</v>
       </c>
     </row>
@@ -10607,13 +12391,13 @@
       <c r="O6">
         <v>42</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>53</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="7">
         <v>59</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10645,13 +12429,13 @@
       <c r="O7">
         <v>43</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>52</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="7">
         <v>60</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10674,13 +12458,13 @@
       <c r="F8">
         <v>266</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>52</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>62</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10703,13 +12487,13 @@
       <c r="F9">
         <v>265</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>51</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <v>62</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10732,13 +12516,13 @@
       <c r="F10">
         <v>264</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>51</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="7">
         <v>67</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10761,13 +12545,13 @@
       <c r="F11">
         <v>263</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>47</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
         <v>67</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="8">
         <v>32</v>
       </c>
     </row>
@@ -10790,13 +12574,13 @@
       <c r="F12">
         <v>264</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>45</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="7">
         <v>65</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10819,13 +12603,13 @@
       <c r="F13">
         <v>264</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>49</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="7">
         <v>66</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10848,13 +12632,13 @@
       <c r="F14">
         <v>264</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
         <v>43</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="7">
         <v>78</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10877,13 +12661,13 @@
       <c r="F15">
         <v>264</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>46</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="7">
         <v>78</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10906,13 +12690,13 @@
       <c r="F16">
         <v>264</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>46</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="7">
         <v>65</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10935,13 +12719,13 @@
       <c r="F17">
         <v>264</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>54</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="7">
         <v>78</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="8">
         <v>31</v>
       </c>
     </row>
@@ -10964,13 +12748,13 @@
       <c r="F18">
         <v>264</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>54</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="7">
         <v>64</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="8">
         <v>33</v>
       </c>
     </row>
@@ -10993,13 +12777,13 @@
       <c r="F19">
         <v>265</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>52</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>74</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11022,13 +12806,13 @@
       <c r="F20">
         <v>265</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="6">
         <v>49</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="7">
         <v>73</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11051,13 +12835,13 @@
       <c r="F21">
         <v>265</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>44</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>69</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11080,10 +12864,11 @@
       <c r="F22">
         <v>264</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="6">
         <v>49</v>
       </c>
-      <c r="R22">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11106,10 +12891,11 @@
       <c r="F23">
         <v>264</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>50</v>
       </c>
-      <c r="R23">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11132,10 +12918,11 @@
       <c r="F24">
         <v>264</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="6">
         <v>53</v>
       </c>
-      <c r="R24">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11158,10 +12945,11 @@
       <c r="F25">
         <v>264</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="6">
         <v>50</v>
       </c>
-      <c r="R25">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8">
         <v>33</v>
       </c>
     </row>
@@ -11184,10 +12972,11 @@
       <c r="F26">
         <v>267</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="6">
         <v>51</v>
       </c>
-      <c r="R26">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11210,10 +12999,11 @@
       <c r="F27">
         <v>268</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="6">
         <v>54</v>
       </c>
-      <c r="R27">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11236,10 +13026,11 @@
       <c r="F28">
         <v>268</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="6">
         <v>54</v>
       </c>
-      <c r="R28">
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11262,10 +13053,11 @@
       <c r="F29">
         <v>268</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="6">
         <v>59</v>
       </c>
-      <c r="R29">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11288,10 +13080,11 @@
       <c r="F30">
         <v>268</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="6">
         <v>48</v>
       </c>
-      <c r="R30">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11314,10 +13107,11 @@
       <c r="F31">
         <v>268</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="6">
         <v>51</v>
       </c>
-      <c r="R31">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11340,10 +13134,11 @@
       <c r="F32">
         <v>268</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="6">
         <v>53</v>
       </c>
-      <c r="R32">
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11366,10 +13161,11 @@
       <c r="F33">
         <v>268</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="6">
         <v>53</v>
       </c>
-      <c r="R33">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8">
         <v>32</v>
       </c>
     </row>
@@ -11392,10 +13188,11 @@
       <c r="F34">
         <v>268</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="6">
         <v>57</v>
       </c>
-      <c r="R34">
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8">
         <v>32</v>
       </c>
     </row>
@@ -11418,10 +13215,11 @@
       <c r="F35">
         <v>268</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="6">
         <v>49</v>
       </c>
-      <c r="R35">
+      <c r="Q35" s="7"/>
+      <c r="R35" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11444,10 +13242,11 @@
       <c r="F36">
         <v>267</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="6">
         <v>49</v>
       </c>
-      <c r="R36">
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11470,10 +13269,11 @@
       <c r="F37">
         <v>267</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="6">
         <v>55</v>
       </c>
-      <c r="R37">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="8">
         <v>32</v>
       </c>
     </row>
@@ -11496,10 +13296,11 @@
       <c r="F38">
         <v>267</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="6">
         <v>53</v>
       </c>
-      <c r="R38">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8">
         <v>34</v>
       </c>
     </row>
@@ -11522,10 +13323,11 @@
       <c r="F39">
         <v>268</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="6">
         <v>53</v>
       </c>
-      <c r="R39">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8">
         <v>31</v>
       </c>
     </row>
@@ -11548,10 +13350,11 @@
       <c r="F40">
         <v>268</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="6">
         <v>62</v>
       </c>
-      <c r="R40">
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8">
         <v>33</v>
       </c>
     </row>
@@ -11574,9 +13377,11 @@
       <c r="F41">
         <v>268</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="6">
         <v>62</v>
       </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42">
@@ -11597,9 +13402,11 @@
       <c r="F42">
         <v>268</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="6">
         <v>62</v>
       </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43">
@@ -11620,9 +13427,11 @@
       <c r="F43">
         <v>268</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="6">
         <v>62</v>
       </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44">
@@ -11643,9 +13452,11 @@
       <c r="F44">
         <v>267</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="6">
         <v>51</v>
       </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45">
@@ -11666,9 +13477,11 @@
       <c r="F45">
         <v>267</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="6">
         <v>57</v>
       </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46">
@@ -11689,9 +13502,11 @@
       <c r="F46">
         <v>267</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="6">
         <v>54</v>
       </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47">
@@ -11712,9 +13527,11 @@
       <c r="F47">
         <v>267</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="6">
         <v>54</v>
       </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48">
@@ -11735,11 +13552,13 @@
       <c r="F48">
         <v>267</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>108</v>
       </c>
@@ -11758,11 +13577,13 @@
       <c r="F49">
         <v>267</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="10"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>108</v>
       </c>
@@ -11782,7 +13603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>108</v>
       </c>
@@ -11802,7 +13623,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>108</v>
       </c>
@@ -11822,7 +13643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>108</v>
       </c>
@@ -11842,7 +13663,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>108</v>
       </c>
@@ -11862,7 +13683,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="D55">
         <v>1</v>
       </c>
@@ -11890,8 +13711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q28"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13051,6 +14872,1885 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="G2">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
+      </c>
+      <c r="L2">
+        <v>61</v>
+      </c>
+      <c r="M2">
+        <v>49</v>
+      </c>
+      <c r="N2">
+        <v>74</v>
+      </c>
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>51</v>
+      </c>
+      <c r="Q2">
+        <v>52</v>
+      </c>
+      <c r="R2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>67</v>
+      </c>
+      <c r="L3">
+        <v>58</v>
+      </c>
+      <c r="M3">
+        <v>59</v>
+      </c>
+      <c r="N3">
+        <v>62</v>
+      </c>
+      <c r="O3">
+        <v>48</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>54</v>
+      </c>
+      <c r="R3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="L4">
+        <v>69</v>
+      </c>
+      <c r="M4">
+        <v>66</v>
+      </c>
+      <c r="N4">
+        <v>61</v>
+      </c>
+      <c r="O4">
+        <v>47</v>
+      </c>
+      <c r="P4">
+        <v>51</v>
+      </c>
+      <c r="Q4">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="L5">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>72</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>52</v>
+      </c>
+      <c r="R5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <v>67</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="P6">
+        <v>51</v>
+      </c>
+      <c r="Q6">
+        <v>47</v>
+      </c>
+      <c r="R6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="P7">
+        <v>48</v>
+      </c>
+      <c r="Q7">
+        <v>52</v>
+      </c>
+      <c r="R7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="P8">
+        <v>53</v>
+      </c>
+      <c r="Q8">
+        <v>53</v>
+      </c>
+      <c r="R8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="P9">
+        <v>48</v>
+      </c>
+      <c r="Q9">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="P10">
+        <v>51</v>
+      </c>
+      <c r="Q10">
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="P11">
+        <v>51</v>
+      </c>
+      <c r="Q11">
+        <v>57</v>
+      </c>
+      <c r="R11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="P12">
+        <v>51</v>
+      </c>
+      <c r="Q12">
+        <v>58</v>
+      </c>
+      <c r="R12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="P13">
+        <v>51</v>
+      </c>
+      <c r="Q13">
+        <v>58</v>
+      </c>
+      <c r="R13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="P14">
+        <v>51</v>
+      </c>
+      <c r="Q14">
+        <v>59</v>
+      </c>
+      <c r="R14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15">
+        <v>57</v>
+      </c>
+      <c r="R15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="P16">
+        <v>51</v>
+      </c>
+      <c r="Q16">
+        <v>62</v>
+      </c>
+      <c r="R16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="16:18">
+      <c r="P17">
+        <v>48</v>
+      </c>
+      <c r="Q17">
+        <v>53</v>
+      </c>
+      <c r="R17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="16:18">
+      <c r="P18">
+        <v>54</v>
+      </c>
+      <c r="Q18">
+        <v>56</v>
+      </c>
+      <c r="R18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="16:18">
+      <c r="P19">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <v>56</v>
+      </c>
+      <c r="R19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="16:18">
+      <c r="P20">
+        <v>53</v>
+      </c>
+      <c r="Q20">
+        <v>53</v>
+      </c>
+      <c r="R20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="16:18">
+      <c r="P21">
+        <v>51</v>
+      </c>
+      <c r="Q21">
+        <v>54</v>
+      </c>
+      <c r="R21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="16:18">
+      <c r="P22">
+        <v>62</v>
+      </c>
+      <c r="Q22">
+        <v>67</v>
+      </c>
+      <c r="R22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="16:18">
+      <c r="P23">
+        <v>63</v>
+      </c>
+      <c r="Q23">
+        <v>61</v>
+      </c>
+      <c r="R23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="16:18">
+      <c r="P24">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <v>60</v>
+      </c>
+      <c r="R24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="16:18">
+      <c r="P25">
+        <v>61</v>
+      </c>
+      <c r="Q25">
+        <v>56</v>
+      </c>
+      <c r="R25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="16:18">
+      <c r="P26">
+        <v>63</v>
+      </c>
+      <c r="Q26">
+        <v>51</v>
+      </c>
+      <c r="R26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="16:18">
+      <c r="P27">
+        <v>64</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+      <c r="R27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="16:18">
+      <c r="P28">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <v>51</v>
+      </c>
+      <c r="R28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="16:18">
+      <c r="P29">
+        <v>64</v>
+      </c>
+      <c r="Q29">
+        <v>47</v>
+      </c>
+      <c r="R29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="16:18">
+      <c r="P30">
+        <v>59</v>
+      </c>
+      <c r="Q30">
+        <v>47</v>
+      </c>
+      <c r="R30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="16:18">
+      <c r="P31">
+        <v>47</v>
+      </c>
+      <c r="Q31">
+        <v>46</v>
+      </c>
+      <c r="R31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="16:18">
+      <c r="P32">
+        <v>65</v>
+      </c>
+      <c r="Q32">
+        <v>49</v>
+      </c>
+      <c r="R32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18">
+      <c r="P33">
+        <v>59</v>
+      </c>
+      <c r="Q33">
+        <v>62</v>
+      </c>
+      <c r="R33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18">
+      <c r="Q34">
+        <v>62</v>
+      </c>
+      <c r="R34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18">
+      <c r="Q35">
+        <v>53</v>
+      </c>
+      <c r="R35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="16:18">
+      <c r="Q36">
+        <v>65</v>
+      </c>
+      <c r="R36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="16:18">
+      <c r="Q37">
+        <v>63</v>
+      </c>
+      <c r="R37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="16:18">
+      <c r="Q38">
+        <v>57</v>
+      </c>
+      <c r="R38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="16:18">
+      <c r="Q39">
+        <v>53</v>
+      </c>
+      <c r="R39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="16:18">
+      <c r="Q40">
+        <v>56</v>
+      </c>
+      <c r="R40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="16:18">
+      <c r="Q41">
+        <v>61</v>
+      </c>
+      <c r="R41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="16:18">
+      <c r="Q42">
+        <v>53</v>
+      </c>
+      <c r="R42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="16:18">
+      <c r="Q43">
+        <v>52</v>
+      </c>
+      <c r="R43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="16:18">
+      <c r="Q44">
+        <v>58</v>
+      </c>
+      <c r="R44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="16:18">
+      <c r="Q45">
+        <v>58</v>
+      </c>
+      <c r="R45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="16:18">
+      <c r="Q46">
+        <v>51</v>
+      </c>
+      <c r="R46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="16:18">
+      <c r="Q47">
+        <v>54</v>
+      </c>
+      <c r="R47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="16:18">
+      <c r="Q48">
+        <v>50</v>
+      </c>
+      <c r="R48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="17:18">
+      <c r="R49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="17:18">
+      <c r="Q50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="17:18">
+      <c r="R51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="17:18">
+      <c r="R52">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>45</v>
+      </c>
+      <c r="B61">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>44</v>
+      </c>
+      <c r="B65">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>44</v>
+      </c>
+      <c r="B68">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>44</v>
+      </c>
+      <c r="B69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>45</v>
+      </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>45</v>
+      </c>
+      <c r="B71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>47</v>
+      </c>
+      <c r="B72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>44</v>
+      </c>
+      <c r="B78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>44</v>
+      </c>
+      <c r="B79">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>45</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>45</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="B85">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>45</v>
+      </c>
+      <c r="B87">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>45</v>
+      </c>
+      <c r="B88">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>46</v>
+      </c>
+      <c r="B89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>46</v>
+      </c>
+      <c r="B90">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>45</v>
+      </c>
+      <c r="B94">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>45</v>
+      </c>
+      <c r="B95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>45</v>
+      </c>
+      <c r="B96">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>46</v>
+      </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>46</v>
+      </c>
+      <c r="B98">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>44</v>
+      </c>
+      <c r="B99">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>44</v>
+      </c>
+      <c r="B100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>45</v>
+      </c>
+      <c r="B101">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>45</v>
+      </c>
+      <c r="B103">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>45</v>
+      </c>
+      <c r="B104">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>45</v>
+      </c>
+      <c r="B105">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>45</v>
+      </c>
+      <c r="B106">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>44</v>
+      </c>
+      <c r="B107">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>44</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>46</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>46</v>
+      </c>
+      <c r="B110">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>45</v>
+      </c>
+      <c r="B111">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>45</v>
+      </c>
+      <c r="B112">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>46</v>
+      </c>
+      <c r="B113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>45</v>
+      </c>
+      <c r="B115">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>45</v>
+      </c>
+      <c r="B116">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>44</v>
+      </c>
+      <c r="B117">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>44</v>
+      </c>
+      <c r="B118">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>45</v>
+      </c>
+      <c r="B119">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>45</v>
+      </c>
+      <c r="B120">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>44</v>
+      </c>
+      <c r="B121">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>45</v>
+      </c>
+      <c r="B123">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>45</v>
+      </c>
+      <c r="B126">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>45</v>
+      </c>
+      <c r="B128">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>45</v>
+      </c>
+      <c r="B129">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>45</v>
+      </c>
+      <c r="B130">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>44</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>44</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>45</v>
+      </c>
+      <c r="B133">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
